--- a/pressure.xlsx
+++ b/pressure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Andrey\AppData\IdeaProjects\CardioPlot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50908E64-9122-4752-B376-128E2BB09FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E3A4D0-D850-434F-ADD3-64AF2B93BC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -422,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F871"/>
+  <dimension ref="A1:F885"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A858" workbookViewId="0">
-      <selection activeCell="A872" sqref="A872"/>
+      <selection activeCell="A886" sqref="A886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15456,6 +15456,244 @@
         <v>67</v>
       </c>
     </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B872" s="1">
+        <v>0.28194444444444444</v>
+      </c>
+      <c r="C872">
+        <v>124</v>
+      </c>
+      <c r="D872">
+        <v>79</v>
+      </c>
+      <c r="E872">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B873" s="1">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="C873">
+        <v>136</v>
+      </c>
+      <c r="D873">
+        <v>83</v>
+      </c>
+      <c r="E873">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B874" s="1">
+        <v>0.52569444444444446</v>
+      </c>
+      <c r="C874">
+        <v>145</v>
+      </c>
+      <c r="D874">
+        <v>87</v>
+      </c>
+      <c r="E874">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>46028</v>
+      </c>
+      <c r="B875" s="1">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="C875">
+        <v>147</v>
+      </c>
+      <c r="D875">
+        <v>91</v>
+      </c>
+      <c r="E875">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B876" s="1">
+        <v>0.19305555555555556</v>
+      </c>
+      <c r="C876">
+        <v>156</v>
+      </c>
+      <c r="D876">
+        <v>90</v>
+      </c>
+      <c r="E876">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B877" s="1">
+        <v>0.26111111111111113</v>
+      </c>
+      <c r="C877">
+        <v>150</v>
+      </c>
+      <c r="D877">
+        <v>95</v>
+      </c>
+      <c r="E877">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B878" s="1">
+        <v>0.56805555555555554</v>
+      </c>
+      <c r="C878">
+        <v>160</v>
+      </c>
+      <c r="D878">
+        <v>99</v>
+      </c>
+      <c r="E878">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B879" s="1">
+        <v>0.80763888888888891</v>
+      </c>
+      <c r="C879">
+        <v>163</v>
+      </c>
+      <c r="D879">
+        <v>95</v>
+      </c>
+      <c r="E879">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>46029</v>
+      </c>
+      <c r="B880" s="1">
+        <v>0.99305555555555558</v>
+      </c>
+      <c r="C880">
+        <v>164</v>
+      </c>
+      <c r="D880">
+        <v>100</v>
+      </c>
+      <c r="E880">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B881" s="1">
+        <v>0.21111111111111111</v>
+      </c>
+      <c r="C881">
+        <v>136</v>
+      </c>
+      <c r="D881">
+        <v>86</v>
+      </c>
+      <c r="E881">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B882" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C882">
+        <v>125</v>
+      </c>
+      <c r="D882">
+        <v>78</v>
+      </c>
+      <c r="E882">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>46030</v>
+      </c>
+      <c r="B883" s="1">
+        <v>0.72013888888888888</v>
+      </c>
+      <c r="C883">
+        <v>139</v>
+      </c>
+      <c r="D883">
+        <v>81</v>
+      </c>
+      <c r="E883">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B884" s="1">
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="C884">
+        <v>138</v>
+      </c>
+      <c r="D884">
+        <v>86</v>
+      </c>
+      <c r="E884">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>46031</v>
+      </c>
+      <c r="B885" s="1">
+        <v>0.2722222222222222</v>
+      </c>
+      <c r="C885">
+        <v>148</v>
+      </c>
+      <c r="D885">
+        <v>89</v>
+      </c>
+      <c r="E885">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
